--- a/dataset/4_DocEx_cases/47_Vega_refine.xlsx
+++ b/dataset/4_DocEx_cases/47_Vega_refine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobby\Desktop\RAG\LLM_Vis\data\Aanalysis\vistroubleshooting.github.io\dataset\4_DocEx_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2F85D59-303C-47D8-99A1-DA43194F0595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B245C1-EEEF-45C2-99F7-093E948270A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="374">
   <si>
     <t>Question ID</t>
   </si>
@@ -137,70 +137,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>{
-    $schema: 'https://vega.github.io/schema/vega-lite/v5.json',
-    description: 'bar-chart',
-    "config": {
-      "style": {
-        "cell": {
-          stroke: "#E2E8F0"
-        }
-      }
-    },
-    data: {
-      "values": []
-    },
-    "mark": {"type": "bar"},
-    encoding: {
-      x: {
-        field: 'b',
-        type: 'quantitative',
-        axis: {
-          labels: true,
-          labelAngle: 0,
-          title: null,
-          labelFontSize: 10,
-          labelColor: '#94A3B8',
-          ticks: false,
-          domain: false,
-          gridColor: "#E2E8F0",
-          labelPadding: 10,
-          grid: true,
-        },
-        scale: {
-          paddingInner: 0.2,
-          paddingOuter: 0.1,
-        },
-        sort: { field: 'c' }
-      },
-      y: {
-        field: 'a',
-        "type": "nominal",
-        axis: {
-          title: null,
-          labelFontSize: 10,
-          labelColor: '#94A3B8',
-          ticks: false,
-          domain: false,
-          gridColor: "#E2E8F0",
-          labelPadding: 16,
-          labelOffset: 3,
-          grid: true,
-          bandPosition: -0.33,
-        },
-        scale: {
-          paddingInner: 0.4,
-          paddingOuter: 0.2,
-        },
-      },
-      color: {field: 'c', scale: {range: [`${this.color}`]}, legend: null},
-      tooltip: {field: 'd', type: 'ordinal'}
-    },
-    width: "container",
-    height: +this.height
-  };</t>
-  </si>
-  <si>
     <t>Can you try using tickBand:center instead of bandPosition?https://vega.github.io/vega-lite/docs/axis.html#ticksI think bandPosition should be between 0 and 1 too.EDITYou can change individual colours using conditional formatting.In the example below, I have highlighted the line you're talking about in
 red.{
   "$schema": "https://vega.github.io/schema/vega-lite/v5.json",
@@ -524,38 +460,6 @@
   </si>
   <si>
     <t>How do I highlight specific bar/s using vega-lite</t>
-  </si>
-  <si>
-    <t>New to vega-lite. How do I highlight specific bar/s using vega-lite.For example, how do I highlight the bars for Documentary and Drama in red (eg ...#dd2525) leaving the remaining bars (grey #4682b4). Thanks.{
-  "$schema": "https://vega.github.io/schema/vega-lite/v5.json",
-  "width": 200,
-  "height": {"step": 16},
-  "data": {"url": "data/movies.json"},
-  "encoding": {
-    "y": {
-      "field": "Major Genre",
-      "type": "nominal",
-      "axis": null
-    }
-  },
-  "layer": [{
-    "mark": {"type": "bar", "color": "#ddd"},
-    "encoding": {
-      "x": {
-        "aggregate": "mean",
-        "field": "IMDB Rating",
-        "scale": {"domain": [0, 10]},
-        "title": "Mean IMDB Ratings"
-      }
-    }
-  }, {
-    "mark": {"type": "text", "align": "left", "x": 5},
-    "encoding": {
-      "text": {"field": "Major Genre"},
-      "detail": {"aggregate": "count"}
-    }
-  }]
-}</t>
   </si>
   <si>
     <t>{
@@ -14438,6 +14342,114 @@
 }
 </t>
   </si>
+  <si>
+    <t>{
+  "$schema": "https://vega.github.io/schema/vega-lite/v5.json",
+  "description": "Bar chart with text labels. Set domain to make the frame cover the labels.",
+  "data": {
+    "values": [
+      {"a": "A", "b": 28},
+      {"a": "B", "b": 55},
+      {"a": "C", "b": 13},
+      {"a": "D", "b": 30}
+    ]
+  },
+  "width": 500,
+  "height": 400,
+  "encoding": {
+    "y": {
+      "field": "a",
+      "type": "nominal",
+      "axis": {
+        "title": null,
+        "labelFontSize": 10,
+        "labelColor": "#94A3B8",
+        "ticks": false,
+        "domain": false,
+        "labelPadding": 16,
+        "labelOffset": 3,
+        "grid": true,
+        "bandPosition": -0.37
+      },
+      "scale": {"paddingInner": 0.4, "paddingOuter": 0.2}
+    },
+    "x": {
+      "field": "b",
+      "type": "quantitative",
+      "scale": {"domain": [0, 60]},
+      "axis": {"grid": false, "domain": false}
+    }
+  },
+  "layer": [{"mark": {"type": "bar", "stroke": "white", "strokeWidth": 10}}]
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>New to vega-lite. How do I highlight specific bar/s using vega-lite.For example, how do I highlight the bars for Documentary and Drama in red (eg ...#dd2525) leaving the remaining bars (grey #4682b4). Thanks.{
+  "$schema": "https://vega.github.io/schema/vega-lite/v5.json",
+  "width": 200,
+  "height": {"step": 16},
+  "data": {"url": "data/movies.json"},
+  "encoding": {
+    "y": {
+      "field": "Major Genre",
+      "type": "nominal",
+      "axis": null
+    }
+  },
+  "layer": [{
+    "mark": {"type": "bar", "color": "#ddd"},
+    "encoding": {
+      "x": {
+        "aggregate": "mean",
+        "field": "IMDB Rating",
+        "scale": {"domain": [0, 10]},
+        "title": "Mean IMDB Ratings"
+      }
+    }
+  }, {
+    "mark": {"type": "text", "align": "left", "x": 5},
+    "encoding": {
+      "text": {"field": "Major Genre"},
+      "detail": {"aggregate": "count"}
+    }
+  }]
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "$schema": "https://vega.github.io/schema/vega-lite/v5.json",
+  "width": 200,
+  "height": {"step": 16},
+  "data": {"url": "data/movies.json"},
+  "encoding": {
+    "y": {
+      "field": "Major Genre",
+      "type": "nominal",
+      "axis": null
+    }
+  },
+  "layer": [{
+    "mark": {"type": "bar", "color": "#ddd"},
+    "encoding": {
+      "x": {
+        "aggregate": "mean",
+        "field": "IMDB Rating",
+        "scale": {"domain": [0, 10]},
+        "title": "Mean IMDB Ratings"
+      }
+    }
+  }, {
+    "mark": {"type": "text", "align": "left", "x": 5},
+    "encoding": {
+      "text": {"field": "Major Genre"},
+      "detail": {"aggregate": "count"}
+    }
+  }]
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -14801,8 +14813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14835,19 +14847,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>314</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -14861,22 +14873,22 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G2" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -14884,32 +14896,32 @@
         <v>73273219</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -14917,26 +14929,26 @@
         <v>69230751</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="G4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K4" s="3"/>
     </row>
@@ -14945,26 +14957,26 @@
         <v>68805413</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="G5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K5" s="3"/>
     </row>
@@ -14973,29 +14985,29 @@
         <v>60929534</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>28</v>
       </c>
       <c r="G6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15003,28 +15015,28 @@
         <v>63408653</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K7" s="3"/>
     </row>
@@ -15033,31 +15045,31 @@
         <v>62764869</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="E8" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="G8" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15065,28 +15077,28 @@
         <v>74796097</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="G9" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -15095,28 +15107,28 @@
         <v>60683632</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="F10" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -15125,28 +15137,28 @@
         <v>76362013</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="F11" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15154,28 +15166,28 @@
         <v>68658805</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="F12" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="G12" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15183,28 +15195,28 @@
         <v>60151507</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="E13" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E13" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="G13" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15212,28 +15224,28 @@
         <v>70184042</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="E14" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="G14" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15241,28 +15253,28 @@
         <v>60759255</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="E15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="F15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="G15" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15270,26 +15282,26 @@
         <v>45160007</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="E16" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="F16" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="G16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15297,28 +15309,28 @@
         <v>64790338</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="G17" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15326,28 +15338,28 @@
         <v>61654169</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="E18" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="G18" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15355,31 +15367,31 @@
         <v>61738703</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="E19" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E19" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="G19" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15387,26 +15399,26 @@
         <v>72543952</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="E20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="F20" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="G20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15414,28 +15426,28 @@
         <v>75658626</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D21" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="E21" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="F21" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="G21" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15443,28 +15455,28 @@
         <v>59741643</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="E22" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E22" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="G22" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15472,26 +15484,26 @@
         <v>59112609</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D23" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="E23" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="G23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15499,26 +15511,26 @@
         <v>69713124</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="G24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15526,29 +15538,29 @@
         <v>60673598</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="G25" s="2"/>
       <c r="I25" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>285</v>
-      </c>
       <c r="K25" s="2" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15556,26 +15568,26 @@
         <v>56425430</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15583,34 +15595,34 @@
         <v>66636702</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E27" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="G27" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>347</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15618,31 +15630,31 @@
         <v>59467415</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D28" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="E28" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>135</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="L28" s="3"/>
     </row>
@@ -15651,28 +15663,28 @@
         <v>72754378</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="G29" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15680,28 +15692,28 @@
         <v>58933759</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="G30" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15709,31 +15721,31 @@
         <v>68346456</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15741,28 +15753,28 @@
         <v>78518667</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15770,28 +15782,28 @@
         <v>59477664</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>159</v>
-      </c>
       <c r="G33" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15799,28 +15811,28 @@
         <v>63445974</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>164</v>
-      </c>
       <c r="G34" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15828,26 +15840,26 @@
         <v>69634695</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="G35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15855,26 +15867,26 @@
         <v>70980191</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="G36" s="2"/>
       <c r="I36" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15882,28 +15894,28 @@
         <v>68990344</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>178</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -15913,28 +15925,28 @@
         <v>77408117</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>183</v>
-      </c>
       <c r="G38" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15942,28 +15954,28 @@
         <v>54610955</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>188</v>
-      </c>
       <c r="G39" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15971,34 +15983,34 @@
         <v>59295466</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J40" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="L40" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16006,31 +16018,31 @@
         <v>61928545</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="G41" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16038,31 +16050,31 @@
         <v>64899750</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16070,28 +16082,28 @@
         <v>59360308</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="G43" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16099,28 +16111,28 @@
         <v>77716460</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="G44" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16128,28 +16140,28 @@
         <v>70398923</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="G45" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16157,28 +16169,28 @@
         <v>76416165</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>222</v>
-      </c>
       <c r="G46" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16186,34 +16198,34 @@
         <v>60934166</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>227</v>
-      </c>
       <c r="G47" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J47" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="L47" s="2" t="s">
         <v>368</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16221,31 +16233,31 @@
         <v>78705532</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>232</v>
-      </c>
       <c r="G48" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/4_DocEx_cases/47_Vega_refine.xlsx
+++ b/dataset/4_DocEx_cases/47_Vega_refine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobby\Desktop\RAG\LLM_Vis\data\Aanalysis\vistroubleshooting.github.io\dataset\4_DocEx_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5B245C1-EEEF-45C2-99F7-093E948270A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D2EF1D-5B3F-4A08-9927-71CEA78C0B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-5580" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3759,9 +3759,6 @@
     <t>The Vega-Lite documentation has an example along these lines infiltering top-k items.Your case is a bit more specialized: you do not want to order based on rank, but rather based on the original ordering of the data. You can do this using a count-basedwindowtransform followed by an appropriatefilter. For example (view in editor):{"data":{"values":[{"Person":"Jeremy","Height":6.2},{"Person":"Alice","Height":6.0},{"Person":"Walter","Height":5.8},{"Person":"Amy","Height":5.6},{"Person":"Joe","Height":5.5}]},"transform":[{"window":[{"op":"count","as":"count"}]},{"filter":"datum.count &lt;= 3"}],"mark":"bar","encoding":{"x":{"field":"Height","type":"quantitative"},"y":{"field":"Person","type":"nominal","sort":null}}}</t>
   </si>
   <si>
-    <t>{"data":{"values":[{"Person":"Jeremy","Height":6.2},{"Person":"Alice","Height":6.0},{"Person":"Walter","Height":5.8},{"Person":"Amy","Height":5.6},{"Person":"Joe","Height":5.5}]},"transform":[{"window":[{"op":"count","as":"count"}]},{"filter":"datum.count &lt;= 3"}],"mark":"bar","encoding":{"x":{"field":"Height","type":"quantitative"},"y":{"field":"Person","type":"nominal","sort":null}}}</t>
-  </si>
-  <si>
     <t>Vega lite select N number of objects (count)</t>
   </si>
   <si>
@@ -4445,46 +4442,6 @@
     }
   }
 }I don't know of any way to draw this color scheme definition from the data, or to force a legend to be drawn when setting scale tonull, but you could hack it by essentially drawing the legend yourself. It might look something like this:(view in vega editor){
-  "$schema": "https://vega.github.io/schema/vega-lite/v4.json",
-  "description": "A bar chart that directly encodes color names in the data.",
-  "data": {
-    "values": [
-      {"color": "rgb(0, 0, 0)", "b": 28, "type": "outside"},
-      {"color": "rgb(255, 0, 0)", "b": 55, "type": "inside"},
-      {"color": "rgb(0, 255, 0)", "b": 43, "type": "dew"}
-    ]
-  },
-  "hconcat": [
-    {
-      "mark": "bar",
-      "encoding": {
-        "x": {"field": "type", "type": "nominal"},
-        "y": {"field": "b", "type": "quantitative"},
-        "color": {
-          "field": "color",
-          "type": "nominal",
-          "legend": {},
-          "scale": null
-        }
-      }
-    },
-    {
-      "title": "type",
-      "mark": {"type": "point", "size": 80, "shape": "square", "filled": true},
-      "encoding": {
-        "y": {
-          "field": "type",
-          "type": "nominal",
-          "axis": {"orient": "right", "title": null}
-        },
-        "color": {"field": "color", "type": "nominal", "scale": null}
-      }
-    }
-  ]
-}</t>
-  </si>
-  <si>
-    <t>{
   "$schema": "https://vega.github.io/schema/vega-lite/v4.json",
   "description": "A bar chart that directly encodes color names in the data.",
   "data": {
@@ -14450,6 +14407,35 @@
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>{"data":{"values":[{"Person":"Jeremy","Height":6.2},{"Person":"Alice","Height":6.0},{"Person":"Walter","Height":5.8},{"Person":"Amy","Height":5.6},{"Person":"Joe","Height":5.5}]},"transform":[{"window":[{"op":"count","as":"count"}]},{"filter":"datum.count &lt;= 3"}],"mark":"bar","encoding":{"x":{"field":"Height","type":"quantitative"},"y":{"field":"Person","type":"nominal","sort":null}}}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "data": {
+    "values": [
+      {"b": 28, "type": "outside"},
+      {"b": 55, "type": "inside"},
+      {"b": 43, "type": "dew"}
+    ]
+  },
+  "mark": "bar",
+  "encoding": {
+    "x": {"field": "type", "type": "nominal"},
+    "y": {"field": "b", "type": "quantitative"},
+    "color": {
+      "field": "type",
+      "type": "nominal",
+      "scale": {
+        "domain": ["outside", "inside", "dew"],
+        "range": ["rgb(0, 0, 0)", "rgb(255, 0, 0)", "rgb(0, 255, 0)"]
+      }
+    }
+  }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -14813,8 +14799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14847,19 +14833,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>311</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>312</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -14873,7 +14859,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -14882,13 +14868,13 @@
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -14911,17 +14897,17 @@
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -14945,10 +14931,10 @@
       </c>
       <c r="G4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K4" s="3"/>
     </row>
@@ -14960,10 +14946,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -14973,10 +14959,10 @@
       </c>
       <c r="G5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K5" s="3"/>
     </row>
@@ -15001,13 +14987,13 @@
       </c>
       <c r="G6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15030,13 +15016,13 @@
         <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K7" s="3"/>
     </row>
@@ -15060,16 +15046,16 @@
         <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15092,13 +15078,13 @@
         <v>41</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -15119,16 +15105,16 @@
         <v>45</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -15149,16 +15135,16 @@
         <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15181,13 +15167,13 @@
         <v>54</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15210,13 +15196,13 @@
         <v>59</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15239,13 +15225,13 @@
         <v>64</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15268,13 +15254,13 @@
         <v>69</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15298,10 +15284,10 @@
       </c>
       <c r="G16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15324,13 +15310,13 @@
         <v>79</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15353,13 +15339,13 @@
         <v>84</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15382,16 +15368,16 @@
         <v>89</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15415,10 +15401,10 @@
       </c>
       <c r="G20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15441,13 +15427,13 @@
         <v>99</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15470,13 +15456,13 @@
         <v>104</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15500,10 +15486,10 @@
       </c>
       <c r="G23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15523,14 +15509,14 @@
         <v>113</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>114</v>
+        <v>372</v>
       </c>
       <c r="G24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15538,29 +15524,29 @@
         <v>60673598</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="G25" s="2"/>
       <c r="I25" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="K25" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15568,26 +15554,26 @@
         <v>56425430</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="F26" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15595,34 +15581,34 @@
         <v>66636702</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="D27" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>128</v>
-      </c>
       <c r="G27" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="L27" s="2" t="s">
         <v>345</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15630,31 +15616,31 @@
         <v>59467415</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="E28" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="F28" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="G28" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="L28" s="3"/>
     </row>
@@ -15663,28 +15649,28 @@
         <v>72754378</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="D29" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="E29" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="F29" s="2" t="s">
-        <v>138</v>
-      </c>
       <c r="G29" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15692,28 +15678,28 @@
         <v>58933759</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="D30" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="E30" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E30" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="F30" s="2" t="s">
-        <v>143</v>
+        <v>373</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15721,31 +15707,31 @@
         <v>68346456</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D31" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C31" s="2" t="s">
+      <c r="E31" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="D31" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="F31" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="J31" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15753,28 +15739,28 @@
         <v>78518667</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D32" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="E32" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="G32" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15782,28 +15768,28 @@
         <v>59477664</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="E33" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="G33" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15811,28 +15797,28 @@
         <v>63445974</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="2" t="s">
+      <c r="E34" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E34" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="G34" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15840,26 +15826,26 @@
         <v>69634695</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D35" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="E35" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>167</v>
       </c>
       <c r="G35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15867,26 +15853,26 @@
         <v>70980191</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="E36" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="G36" s="2"/>
       <c r="I36" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15894,28 +15880,28 @@
         <v>68990344</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="E37" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="F37" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -15925,28 +15911,28 @@
         <v>77408117</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="E38" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="G38" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15954,28 +15940,28 @@
         <v>54610955</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D39" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="E39" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="F39" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="G39" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15983,34 +15969,34 @@
         <v>59295466</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="E40" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="G40" s="2" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J40" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="K40" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="L40" s="2" t="s">
         <v>359</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16018,31 +16004,31 @@
         <v>61928545</v>
       </c>
       <c r="B41" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="E41" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="G41" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16050,31 +16036,31 @@
         <v>64899750</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16082,28 +16068,28 @@
         <v>59360308</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="E43" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="G43" s="2" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16111,28 +16097,28 @@
         <v>77716460</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C44" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="D44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="E44" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="G44" s="2" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16140,28 +16126,28 @@
         <v>70398923</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D45" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C45" s="2" t="s">
+      <c r="E45" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="G45" s="2" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16169,28 +16155,28 @@
         <v>76416165</v>
       </c>
       <c r="B46" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C46" s="2" t="s">
+      <c r="E46" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="E46" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="G46" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16198,34 +16184,34 @@
         <v>60934166</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C47" s="2" t="s">
+      <c r="E47" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="F47" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>225</v>
-      </c>
       <c r="G47" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J47" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="K47" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="L47" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16233,31 +16219,31 @@
         <v>78705532</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="C48" s="2" t="s">
+      <c r="E48" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="F48" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="G48" s="2" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/dataset/4_DocEx_cases/47_Vega_refine.xlsx
+++ b/dataset/4_DocEx_cases/47_Vega_refine.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dobby\Desktop\RAG\LLM_Vis\data\Aanalysis\vistroubleshooting.github.io\dataset\4_DocEx_cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15D2EF1D-5B3F-4A08-9927-71CEA78C0B2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8751AC23-3CA8-4EEF-9FBC-10A7C3E74343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-5580" windowWidth="19200" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38510" yWindow="-5690" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8997,204 +8997,6 @@
   </si>
   <si>
     <t>{
-  "width": 500,
-  "height": 500,
-  "title": {
-    "text": "Milestone Trend Analysis"
-  },
-  "data": {"name": "dataset"},
-  "transform": [
-    {
-      "joinaggregate": [
-        {
-          "op": "min",
-          "field": "Report Date",
-          "as": "Report_Date_min"
-        },
-        {
-          "op": "max",
-          "field": "Report Date",
-          "as": "Report_Date_max"
-        },
-        {
-          "op": "min",
-          "field": "Milestone Finish Date",
-          "as": "Milestone_Finish_Date_min"
-        },
-        {
-          "op": "max",
-          "field": "Milestone Finish Date",
-          "as": "Milestone_Finish_Date_max"
-        }
-      ]
-    },
-    {
-      "calculate": "datum.Report_Date_min &lt; datum.Milestone_Finish_Date_min ? datum.Report_Date_min : datum.Milestone_Finish_Date_min",
-      "as": "Global_min"
-    },
-    {
-      "calculate": "datum.Report_Date_max &gt; datum.Milestone_Finish_Date_max ? datum.Report_Date_max : datum.Milestone_Finish_Date_max",
-      "as": "Global_max"
-    },
-    {
-      "calculate": "datum['__row__'] &lt;= 0 ? datum.Global_min : datum.Global_max",
-      "as": "Time_range"
-    }
-  ],
-  "params": [
-    {
-      "name": "Global_min_p",
-      "expr": "data('data_0')[0]['Global_min']"
-    },
-    {
-      "name": "Global_max_p",
-      "expr": "data('data_0')[0]['Global_max']"
-    }
-  ],
-  "layer": [
-    {
-      "name": "milestone_trace",
-      "mark": "line",
-      "encoding": {
-        "x": {
-          "field": "Report Date",
-          "type": "temporal",
-          "axis": {
-            "title": "Report Date",
-            "grid": true,
-            "orient": "top"
-          },
-          "scale": {
-            "domainMin": {
-              "expr": "Global_min_p"
-            },
-            "domainMax": {
-              "expr": "Global_max_p"
-            }
-          }
-        },
-        "y": {
-          "field": "Milestone Finish Date",
-          "type": "temporal",
-          "axis": {
-            "title": "Milestone Date",
-            "grid": true
-          },
-          "scale": {
-            "domainMin": {
-              "expr": "Global_min_p"
-            },
-            "domainMax": {
-              "expr": "Global_max_p"
-            }
-          }
-        },
-        "color": {
-          "field": "Task Code",
-          "scale": {
-            "scheme": "pbiColorNominal"
-          }
-        }
-      }
-    },
-    {
-      "name": "milestone_mark",
-      "mark": {
-        "type": "circle",
-        "opacity": 1,
-        "strokeWidth": 1,
-        "size": 30,
-        "filled": false,
-        "tooltip": true
-      },
-      "encoding": {
-        "x": {
-          "field": "Report Date",
-          "type": "temporal",
-          "axis": {
-            "title": "Report Date",
-            "grid": true
-          }
-        },
-        "y": {
-          "field": "Milestone Finish Date",
-          "type": "temporal",
-          "axis": {
-            "title": "Milestone Date",
-            "grid": true
-          }
-        },
-        "color": {
-          "field": "Task Code",
-          "scale": {
-            "scheme": "pbiColorNominal"
-          }
-        },
-        "tooltip": [
-          {
-            "field": "Task Code",
-            "title": "Milestone Type"
-          },
-          {
-            "field": "Milestone Finish Date",
-            "title": "Finish Date",
-            "type": "temporal"
-          },
-          {
-            "field": "Report Date",
-            "title": "Report Date",
-            "type": "temporal"
-          }
-        ]
-      }
-    },
-    {
-      "name": "date_equity",
-      "mark": {
-        "type": "line",
-        "strokeDash": [8, 4],
-        "strokeWidth": 1,
-        "color": "red"
-      },
-      "encoding": {
-        "x": {
-          "field": "Time_range",
-          "type": "temporal"
-        },
-        "y": {
-          "field": "Time_range",
-          "type": "temporal"
-        }
-      }
-    },
-    {
-      "name": "whitespace",
-      "mark": {
-        "type": "area",
-        "fill": "white"
-      },
-      "encoding": {
-        "x": {
-          "field": "Time_range",
-          "type": "temporal"
-        },
-        "y": {
-          "field": "Time_range",
-          "type": "temporal"
-        }
-      }
-    }
-  ],
-  "config": {
-    "style": {
-      "cell": {"stroke": "transparent"}
-    }
-  }
-}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
   "$schema": "https://vega.github.io/schema/vega-lite/v3.json",
   "title": "Insights stats",
   "description": "Overview of insights stats",
@@ -14433,6 +14235,41 @@
       }
     }
   }
+}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+  "$schema": "https://vega.github.io/schema/vega-lite/v5.json",
+  "description": "Google's stock price over time.",
+  "data": {"url": "data/stocks.csv"},
+  "transform": [{"filter": "datum.symbol==='GOOG'"}],
+  "layer": [
+    {
+      "mark": "line",
+      "encoding": {
+        "x": {"field": "date", "type": "temporal", "axis": {"orient": "top"}},
+        "y": {"field": "date", "type": "temporal"}
+      }
+    },
+    {
+      "transform": [
+        {
+          "aggregate": [
+            {"op": "min","field": "date","as": "min_date"},
+            {"op": "max","field": "date","as": "max_date"}
+          ]
+        },
+        {"fold": ["min_date", "max_date"]},
+        {"calculate": "datum.value==datum.min_date ? 0 : 100", "as": "yvalue"}
+      ],
+      "mark": {"type": "area", "fill": "white"},
+      "encoding": {
+        "x": {"field": "value", "type": "temporal"},
+        "y": {"field": "yvalue", "type": "quantitative", "axis": null}
+      }
+    }
+  ]
 }</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -14799,8 +14636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -14833,19 +14670,19 @@
         <v>5</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>309</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>311</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -14859,7 +14696,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
@@ -14868,13 +14705,13 @@
         <v>9</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -14897,17 +14734,17 @@
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K3" s="3"/>
       <c r="L3" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -14931,10 +14768,10 @@
       </c>
       <c r="G4" s="2"/>
       <c r="I4" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="K4" s="3"/>
     </row>
@@ -14946,10 +14783,10 @@
         <v>19</v>
       </c>
       <c r="C5" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>371</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>21</v>
@@ -14959,10 +14796,10 @@
       </c>
       <c r="G5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="K5" s="3"/>
     </row>
@@ -14987,13 +14824,13 @@
       </c>
       <c r="G6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J6" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>318</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15016,13 +14853,13 @@
         <v>31</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="K7" s="3"/>
     </row>
@@ -15046,16 +14883,16 @@
         <v>36</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J8" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="K8" s="3" t="s">
         <v>321</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15078,13 +14915,13 @@
         <v>41</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="I9" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>323</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>324</v>
       </c>
       <c r="K9" s="3"/>
     </row>
@@ -15108,13 +14945,13 @@
         <v>229</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K10" s="3"/>
     </row>
@@ -15135,16 +14972,16 @@
         <v>49</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>230</v>
+        <v>373</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15167,13 +15004,13 @@
         <v>54</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="I12" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15196,13 +15033,13 @@
         <v>59</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15225,13 +15062,13 @@
         <v>64</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15254,13 +15091,13 @@
         <v>69</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15284,10 +15121,10 @@
       </c>
       <c r="G16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15310,13 +15147,13 @@
         <v>79</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15339,13 +15176,13 @@
         <v>84</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15368,16 +15205,16 @@
         <v>89</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J19" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="K19" s="2" t="s">
         <v>335</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15401,10 +15238,10 @@
       </c>
       <c r="G20" s="2"/>
       <c r="I20" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15427,13 +15264,13 @@
         <v>99</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15456,13 +15293,13 @@
         <v>104</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15486,10 +15323,10 @@
       </c>
       <c r="G23" s="2"/>
       <c r="I23" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15509,14 +15346,14 @@
         <v>113</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G24" s="2"/>
       <c r="I24" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15540,13 +15377,13 @@
       </c>
       <c r="G25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="K25" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15566,14 +15403,14 @@
         <v>122</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15596,19 +15433,19 @@
         <v>127</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="L27" s="2" t="s">
         <v>344</v>
-      </c>
-      <c r="L27" s="2" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15631,16 +15468,16 @@
         <v>132</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="J28" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="K28" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="L28" s="3"/>
     </row>
@@ -15664,13 +15501,13 @@
         <v>137</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15690,16 +15527,16 @@
         <v>141</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15719,19 +15556,19 @@
         <v>145</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="J31" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="L31" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="L31" s="2" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15754,13 +15591,13 @@
         <v>150</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="J32" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15783,13 +15620,13 @@
         <v>155</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15812,13 +15649,13 @@
         <v>160</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I34" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J34" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15842,10 +15679,10 @@
       </c>
       <c r="G35" s="2"/>
       <c r="I35" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15869,10 +15706,10 @@
       </c>
       <c r="G36" s="2"/>
       <c r="I36" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15892,16 +15729,16 @@
         <v>174</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -15926,13 +15763,13 @@
         <v>179</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15955,13 +15792,13 @@
         <v>184</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I39" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -15984,19 +15821,19 @@
         <v>189</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J40" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="K40" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="K40" s="2" t="s">
+      <c r="L40" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16019,16 +15856,16 @@
         <v>194</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="J41" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="L41" s="2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16048,19 +15885,19 @@
         <v>198</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I42" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K42" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16083,13 +15920,13 @@
         <v>203</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16112,13 +15949,13 @@
         <v>208</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16141,13 +15978,13 @@
         <v>213</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16170,13 +16007,13 @@
         <v>218</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I46" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="J46" s="2" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16199,19 +16036,19 @@
         <v>223</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J47" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="K47" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="K47" s="2" t="s">
+      <c r="L47" s="2" t="s">
         <v>365</v>
-      </c>
-      <c r="L47" s="2" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -16234,16 +16071,16 @@
         <v>228</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J48" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="L48" s="2" t="s">
         <v>367</v>
-      </c>
-      <c r="L48" s="2" t="s">
-        <v>368</v>
       </c>
     </row>
   </sheetData>
